--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kongy\Desktop\mosaic-prototype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kongy\Desktop\mosaic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDFBE5D-8E65-46BB-A733-2268BBAE6C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC70443A-198E-4C38-8F0C-DB45356D8A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Q</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,7 +351,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT13" sqref="AT13"/>
+      <selection activeCell="AM13" sqref="AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -367,7 +363,7 @@
       <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
         <v>0</v>
       </c>
       <c r="D1">
@@ -389,7 +385,7 @@
         <v>0</v>
       </c>
       <c r="J1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K1">
         <v>0</v>
@@ -398,10 +394,10 @@
         <v>0</v>
       </c>
       <c r="M1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O1">
         <v>0</v>
@@ -1024,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1098,16 +1094,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1172,16 +1168,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1246,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>0</v>
